--- a/data/trans_dic/P24D-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P24D-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.3989482246736363</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3674205072453054</v>
+        <v>0.3674205072453052</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2250809950754739</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2051633998413402</v>
+        <v>0.2016960579128256</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4173898724116172</v>
+        <v>0.41886859354012</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3827609635632507</v>
+        <v>0.3773588514053469</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2534043601831022</v>
+        <v>0.261725400240863</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1254957013631957</v>
+        <v>0.1290841138466415</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5180831890656599</v>
+        <v>0.5059764725826544</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3232749997400891</v>
+        <v>0.3340814418965006</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2966663756682794</v>
+        <v>0.2902163755521943</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1902153247315502</v>
+        <v>0.1908344474254268</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.472551971242546</v>
+        <v>0.4704599614569434</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3773961304169693</v>
+        <v>0.3787972114659569</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2949861839979497</v>
+        <v>0.293325593627959</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2978047104316517</v>
+        <v>0.3032039450078515</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5387373938203486</v>
+        <v>0.5403898262198733</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.513634915552547</v>
+        <v>0.5083965018576632</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4129943538840933</v>
+        <v>0.4148411179894174</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2495644272220389</v>
+        <v>0.2478672839667459</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6720896711783365</v>
+        <v>0.6673269499500185</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4801384657123948</v>
+        <v>0.4834417905628172</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.441914932984201</v>
+        <v>0.4451604403253895</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2635331390467062</v>
+        <v>0.2626859047922314</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5731401649516675</v>
+        <v>0.5706282450196876</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4777464341249339</v>
+        <v>0.4750825347694628</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3984117971406179</v>
+        <v>0.4010489289453143</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.529500008679997</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4361907541609663</v>
+        <v>0.4361907541609662</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3511852219076431</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2640225838436012</v>
+        <v>0.266370877389273</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4417364434474658</v>
+        <v>0.43857387206581</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4201190490805493</v>
+        <v>0.414727044048288</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2566017809006219</v>
+        <v>0.2603954539823762</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3540805685898725</v>
+        <v>0.3558744209254123</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4578628033473526</v>
+        <v>0.4562183539379854</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4666734655345202</v>
+        <v>0.4673588423880979</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3701747476758127</v>
+        <v>0.365417889428014</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3149896880135188</v>
+        <v>0.3126425181516418</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4598885751903382</v>
+        <v>0.4641635777550752</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4593916634719685</v>
+        <v>0.4570463505970466</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3189153154364192</v>
+        <v>0.3257596475429546</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3625157778073366</v>
+        <v>0.3591481471807401</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5420002712115145</v>
+        <v>0.5468529489183578</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5320754864625374</v>
+        <v>0.5326194351467255</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3993602236767253</v>
+        <v>0.3977077443450356</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4906731385278421</v>
+        <v>0.4937218047685204</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5829824586336665</v>
+        <v>0.5801289961989865</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.591662042215921</v>
+        <v>0.5897966553122084</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5047592529949719</v>
+        <v>0.4994638217543738</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3902351454060571</v>
+        <v>0.391574971898647</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5418626778732311</v>
+        <v>0.5431066772462754</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5442529673224139</v>
+        <v>0.5426897907120504</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4220652987696898</v>
+        <v>0.4234859815246442</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3217935131962361</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.4221462003720875</v>
+        <v>0.4221462003720874</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.381902203924482</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.319529050899323</v>
+        <v>0.3118164157537862</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4133892272964447</v>
+        <v>0.4096113990635146</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2977945591395448</v>
+        <v>0.3031642051453686</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3073566652505906</v>
+        <v>0.3108742712731747</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3164519737959712</v>
+        <v>0.3172314898000739</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4307932323497375</v>
+        <v>0.436402608835245</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2584459959668248</v>
+        <v>0.2586398728754912</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.35777639046695</v>
+        <v>0.3509202455542685</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3330371805786884</v>
+        <v>0.3352426497326092</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4405021272317228</v>
+        <v>0.4421515137929166</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3025709750286769</v>
+        <v>0.3032765458618815</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3450185229244105</v>
+        <v>0.3530563649812755</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4393498945962216</v>
+        <v>0.4357458427252953</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5352582365943325</v>
+        <v>0.5314019339266913</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4165947974766981</v>
+        <v>0.4165939040557366</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4637935154570048</v>
+        <v>0.4681749155329354</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4629479914887806</v>
+        <v>0.4636661903524947</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5751484722213126</v>
+        <v>0.5806617438520747</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3848522184872192</v>
+        <v>0.3875691960129639</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5006063846218364</v>
+        <v>0.4857745057677798</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4249912529596173</v>
+        <v>0.4275466669041179</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5314017640215367</v>
+        <v>0.5309833800122574</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3867541611809669</v>
+        <v>0.390132162782527</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4571670959417474</v>
+        <v>0.456669595702665</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2577675643163528</v>
+        <v>0.2564825872652649</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3583085678602393</v>
+        <v>0.3572325645475334</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3789862722989421</v>
+        <v>0.3727602405281671</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3259216658638152</v>
+        <v>0.3358317279301554</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3012253755493458</v>
+        <v>0.303120054117919</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4084334801960221</v>
+        <v>0.4048264675726975</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4275158693404238</v>
+        <v>0.4259199414874326</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4446490818662723</v>
+        <v>0.4313837296039201</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2895160337781022</v>
+        <v>0.2892743140454768</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3938773017602138</v>
+        <v>0.3954019526947318</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4170167502849985</v>
+        <v>0.4172215520751696</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3991138980119874</v>
+        <v>0.3942048649177824</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3447798401557812</v>
+        <v>0.3444803005424002</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4687225906192175</v>
+        <v>0.4618967419557743</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4954651813527579</v>
+        <v>0.4899553372448067</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.462294655941404</v>
+        <v>0.4615187253567685</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4100247342776155</v>
+        <v>0.4142820231543698</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5247560605163458</v>
+        <v>0.5267737390622036</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.551583013516535</v>
+        <v>0.5526370010927666</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5671542648929089</v>
+        <v>0.5611249517419594</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3563988581884029</v>
+        <v>0.3591706215867143</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4754573589396755</v>
+        <v>0.476000078225391</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.504427577942045</v>
+        <v>0.5041587755874496</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4852610466572282</v>
+        <v>0.4856085893240477</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.444054082612383</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.4380242229058431</v>
+        <v>0.438024222905843</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.3214590841093062</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2799921690126399</v>
+        <v>0.2815375829657055</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4375983314005255</v>
+        <v>0.4354526861293562</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3996632121177835</v>
+        <v>0.400652646948449</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3207465042591486</v>
+        <v>0.3200846263691415</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3178042204807369</v>
+        <v>0.3146560323284813</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.479022985276682</v>
+        <v>0.480757613417101</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4093270889620211</v>
+        <v>0.4105270849277842</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4068875612194174</v>
+        <v>0.4015457525343309</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3004022731049635</v>
+        <v>0.3022655502971323</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4628205325941617</v>
+        <v>0.4618616833192177</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4159899018562353</v>
+        <v>0.4145786846894868</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3661708958803392</v>
+        <v>0.3704022424972979</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3274687868622447</v>
+        <v>0.3313015520276268</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4929542421415309</v>
+        <v>0.494559689594695</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4595690438990279</v>
+        <v>0.4602959068040458</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3942483251732706</v>
+        <v>0.3892210022409142</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3799666579407184</v>
+        <v>0.3827367057278952</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.545888377354917</v>
+        <v>0.5488859933719186</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4774363628215558</v>
+        <v>0.4762806211480431</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4724288256389557</v>
+        <v>0.4710805821773825</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3418427170671687</v>
+        <v>0.3411321607454018</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5029384449379944</v>
+        <v>0.5058615954984572</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4596614709656472</v>
+        <v>0.4585571734635802</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4179911993741403</v>
+        <v>0.419290997686679</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>65088</v>
+        <v>63988</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>112521</v>
+        <v>112920</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>95902</v>
+        <v>94548</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>48885</v>
+        <v>50490</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>19574</v>
+        <v>20134</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>83847</v>
+        <v>81887</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>54442</v>
+        <v>56262</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>38535</v>
+        <v>37697</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>90015</v>
+        <v>90308</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>203870</v>
+        <v>202967</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>158114</v>
+        <v>158701</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>95223</v>
+        <v>94687</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>94479</v>
+        <v>96192</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>145234</v>
+        <v>145680</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>128692</v>
+        <v>127380</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>79672</v>
+        <v>80028</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>38926</v>
+        <v>38661</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>108771</v>
+        <v>108000</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>80860</v>
+        <v>81416</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>57401</v>
+        <v>57823</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>124710</v>
+        <v>124310</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>247266</v>
+        <v>246182</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>200157</v>
+        <v>199041</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>128609</v>
+        <v>129460</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>107011</v>
+        <v>107963</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>179123</v>
+        <v>177841</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>140651</v>
+        <v>138846</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>65190</v>
+        <v>66154</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>79683</v>
+        <v>80086</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>132939</v>
+        <v>132462</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>126435</v>
+        <v>126621</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>72106</v>
+        <v>71179</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>198554</v>
+        <v>197075</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>320012</v>
+        <v>322986</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>278261</v>
+        <v>276840</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>143142</v>
+        <v>146214</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>146932</v>
+        <v>145567</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>219780</v>
+        <v>221748</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>178132</v>
+        <v>178315</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>101458</v>
+        <v>101038</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>110422</v>
+        <v>111108</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>169267</v>
+        <v>168439</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>160298</v>
+        <v>159792</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>98321</v>
+        <v>97290</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>245986</v>
+        <v>246830</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>377053</v>
+        <v>377919</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>329663</v>
+        <v>328716</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>189440</v>
+        <v>190077</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>81152</v>
+        <v>79194</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>129173</v>
+        <v>127993</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>92021</v>
+        <v>93681</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>63880</v>
+        <v>64611</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>53501</v>
+        <v>53633</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>98487</v>
+        <v>99769</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>58217</v>
+        <v>58260</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>61324</v>
+        <v>60149</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>140888</v>
+        <v>141821</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>238352</v>
+        <v>239244</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>161654</v>
+        <v>162031</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>130846</v>
+        <v>133894</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>111584</v>
+        <v>110669</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>167254</v>
+        <v>166049</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>128732</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>96394</v>
+        <v>97305</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>78268</v>
+        <v>78390</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>131489</v>
+        <v>132749</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>86691</v>
+        <v>87303</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>85806</v>
+        <v>83264</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>179788</v>
+        <v>180869</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>287537</v>
+        <v>287310</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>206630</v>
+        <v>208435</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>173377</v>
+        <v>173189</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>104213</v>
+        <v>103694</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>130545</v>
+        <v>130153</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>106794</v>
+        <v>105039</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>78077</v>
+        <v>80451</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>91691</v>
+        <v>92268</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>117788</v>
+        <v>116748</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>110036</v>
+        <v>109625</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>91091</v>
+        <v>88374</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>205176</v>
+        <v>205004</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>257094</v>
+        <v>258090</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>224844</v>
+        <v>224954</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>177374</v>
+        <v>175192</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>139391</v>
+        <v>139270</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>170773</v>
+        <v>168286</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>139616</v>
+        <v>138064</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>110746</v>
+        <v>110561</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>124809</v>
+        <v>126105</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>151334</v>
+        <v>151916</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>141969</v>
+        <v>142240</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>116188</v>
+        <v>114953</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>252575</v>
+        <v>254539</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>310344</v>
+        <v>310698</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>271973</v>
+        <v>271828</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>215659</v>
+        <v>215814</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>386621</v>
+        <v>388755</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>591586</v>
+        <v>588685</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>470059</v>
+        <v>471222</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>286863</v>
+        <v>286271</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>271555</v>
+        <v>268865</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>464266</v>
+        <v>465947</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>377391</v>
+        <v>378497</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>285206</v>
+        <v>281461</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>671490</v>
+        <v>675655</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1074246</v>
+        <v>1072021</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>872795</v>
+        <v>869834</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>584155</v>
+        <v>590905</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>452178</v>
+        <v>457470</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>666421</v>
+        <v>668591</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>540516</v>
+        <v>541371</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>352600</v>
+        <v>348104</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>324672</v>
+        <v>327039</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>529072</v>
+        <v>531977</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>440186</v>
+        <v>439121</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>331147</v>
+        <v>330202</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>764122</v>
+        <v>762533</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1167363</v>
+        <v>1174148</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>964423</v>
+        <v>962106</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>666824</v>
+        <v>668897</v>
       </c>
     </row>
     <row r="24">
